--- a/data/InaugurationInfo.xlsx
+++ b/data/InaugurationInfo.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianzheng/Dropbox/Tian_Teaching/G5243-ADS/Spring2017/Tutorials/speeches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Prayerest_/2017Spring/ADS2017Spring/ADS/Spr2017-Proj1-prayerest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="3420" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$47</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>President</t>
   </si>
@@ -6759,13 +6763,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6814,13 +6818,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6869,13 +6873,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6924,13 +6928,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6979,13 +6983,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7034,13 +7038,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7089,13 +7093,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7144,13 +7148,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7199,13 +7203,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7254,13 +7258,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7309,13 +7313,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7364,13 +7368,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7419,13 +7423,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7474,13 +7478,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7529,13 +7533,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7584,13 +7588,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7639,13 +7643,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7694,13 +7698,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7749,13 +7753,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7804,13 +7808,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7859,13 +7863,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7914,13 +7918,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7969,13 +7973,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8024,13 +8028,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8079,13 +8083,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8134,13 +8138,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8189,13 +8193,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8244,13 +8248,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8299,13 +8303,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8354,13 +8358,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8409,13 +8413,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8464,13 +8468,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8519,13 +8523,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8574,13 +8578,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8629,13 +8633,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8684,13 +8688,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8739,13 +8743,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8794,13 +8798,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8849,13 +8853,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8904,13 +8908,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8959,13 +8963,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9014,13 +9018,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9069,13 +9073,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9124,13 +9128,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9179,13 +9183,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9234,13 +9238,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9289,13 +9293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9344,13 +9348,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9399,13 +9403,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9454,13 +9458,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9509,13 +9513,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9564,13 +9568,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9619,13 +9623,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9674,13 +9678,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9729,13 +9733,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9784,13 +9788,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9839,13 +9843,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9894,13 +9898,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9949,13 +9953,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10004,13 +10008,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10059,13 +10063,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10114,13 +10118,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10169,13 +10173,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10224,13 +10228,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10279,13 +10283,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10334,13 +10338,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10389,13 +10393,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10444,13 +10448,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10499,13 +10503,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10554,13 +10558,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10609,13 +10613,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10664,13 +10668,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10719,13 +10723,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10774,13 +10778,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10829,13 +10833,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10884,13 +10888,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10939,13 +10943,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10994,13 +10998,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11049,13 +11053,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11104,13 +11108,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11159,13 +11163,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11214,13 +11218,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11269,13 +11273,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11324,13 +11328,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11379,13 +11383,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11434,13 +11438,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11489,13 +11493,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11544,13 +11548,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11599,13 +11603,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11654,13 +11658,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11709,13 +11713,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11764,13 +11768,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11819,13 +11823,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11874,13 +11878,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11929,13 +11933,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11984,13 +11988,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12039,13 +12043,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12094,13 +12098,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12149,13 +12153,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12204,13 +12208,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12259,13 +12263,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12314,13 +12318,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12369,13 +12373,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12424,13 +12428,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12479,13 +12483,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12534,13 +12538,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12589,13 +12593,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12644,13 +12648,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12699,13 +12703,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12754,13 +12758,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12809,13 +12813,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12864,13 +12868,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12919,13 +12923,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12974,13 +12978,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13006,6 +13010,5176 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="21742400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2235200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 116" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2438400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 117" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2641600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 118" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2844800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 119" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 120" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 121" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 122" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3454400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 123" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3454400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Picture 124" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3657600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 125" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3860800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Picture 126" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4267200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Picture 127" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4267200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Picture 128" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4470400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Picture 129" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4673600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Picture 130" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4876800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Picture 131" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5080000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Picture 132" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5080000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Picture 133" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5283200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Picture 134" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5486400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Picture 135" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5689600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Picture 136" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Picture 137" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6299200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Picture 138" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6502400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="Picture 139" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6705600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Picture 140" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6908800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Picture 141" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7112000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Picture 142" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7315200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Picture 143" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7518400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Picture 144" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7721600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="Picture 145" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7924800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Picture 146" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8128000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Picture 147" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8331200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Picture 148" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8534400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Picture 149" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8737600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Picture 150" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8940800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Picture 151" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9144000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Picture 152" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9347200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Picture 153" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9550400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Picture 154" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9753600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Picture 155" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9753600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="Picture 156" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9956800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="Picture 157" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10363200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="Picture 158" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10566400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="Picture 159" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10972800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="Picture 160" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11379200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="Picture 161" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11785600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="Picture 162" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="2235200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="Picture 163" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="2438400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="Picture 164" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="2641600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="Picture 165" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="2844800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="Picture 166" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="3048000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="Picture 167" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="3048000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="Picture 168" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="3251200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="Picture 169" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="3454400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="Picture 170" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="3454400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="Picture 171" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="3657600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="Picture 172" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="3860800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="174" name="Picture 173" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="4267200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="175" name="Picture 174" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="4267200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="Picture 175" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="4470400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="177" name="Picture 176" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="4673600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="Picture 177" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="4876800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="Picture 178" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="5080000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="Picture 179" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="5080000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="Picture 180" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="5283200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="Picture 181" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="5486400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Picture 182" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="5689600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="Picture 183" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="6096000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="Picture 184" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="6299200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="Picture 185" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="6502400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="187" name="Picture 186" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="6705600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="Picture 187" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="6908800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="Picture 188" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="7112000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="Picture 189" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="7315200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="191" name="Picture 190" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="7518400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="192" name="Picture 191" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="7721600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="193" name="Picture 192" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="7924800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="194" name="Picture 193" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="8128000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="195" name="Picture 194" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="8331200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="196" name="Picture 195" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="8534400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="197" name="Picture 196" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="8737600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="198" name="Picture 197" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="8940800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="199" name="Picture 198" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="9144000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="Picture 199" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="9347200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="201" name="Picture 200" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="9550400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="Picture 201" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="9753600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="203" name="Picture 202" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="9753600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="204" name="Picture 203" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="9956800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="Picture 204" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="10363200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="Picture 205" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="10566400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="Picture 206" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="10972800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="Picture 207" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="11379200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="Picture 208" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2108200" y="11785600"/>
           <a:ext cx="12700" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13293,8 +18467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14316,12 +19490,818 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1455</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
